--- a/E-Bike_MVP_Product_Backlog.xlsx
+++ b/E-Bike_MVP_Product_Backlog.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StartupActivities\eBikesProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eBikeMVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="163">
   <si>
     <t>As a</t>
   </si>
@@ -168,9 +168,6 @@
     <t>bikes remain legally compliant</t>
   </si>
   <si>
-    <t>receive in-app safety prompts</t>
-  </si>
-  <si>
     <t>I ride responsibly and legally</t>
   </si>
   <si>
@@ -424,13 +421,100 @@
   </si>
   <si>
     <t>Limits automatically lifted with trust score improvement</t>
+  </si>
+  <si>
+    <t>Battery health score calculated</t>
+  </si>
+  <si>
+    <t>Trends shown over time</t>
+  </si>
+  <si>
+    <t>Alerts triggered for degradation thresholds</t>
+  </si>
+  <si>
+    <t>Owner notified in-app and via email</t>
+  </si>
+  <si>
+    <t>Metrics include distance, duration, charge cycles</t>
+  </si>
+  <si>
+    <t>Analytics visible per bike</t>
+  </si>
+  <si>
+    <t>Data updated after each trip</t>
+  </si>
+  <si>
+    <t>Exportable reports available</t>
+  </si>
+  <si>
+    <t>Rules detect over-speeding, over-drain, abuse</t>
+  </si>
+  <si>
+    <t>Flags recorded per renter</t>
+  </si>
+  <si>
+    <t>Repeat misuse escalated automatically</t>
+  </si>
+  <si>
+    <t>Owner and admin notified</t>
+  </si>
+  <si>
+    <t>Terms clearly state facilitator role</t>
+  </si>
+  <si>
+    <t>Owners shown as asset providers</t>
+  </si>
+  <si>
+    <t>Payments structured as peer-to-peer</t>
+  </si>
+  <si>
+    <t>Legal review checklist satisfied</t>
+  </si>
+  <si>
+    <t>Speed limits configurable per region</t>
+  </si>
+  <si>
+    <t>Speed violations detected via GPS</t>
+  </si>
+  <si>
+    <t>Alerts sent to rider during trip</t>
+  </si>
+  <si>
+    <t>Repeated violations penalised</t>
+  </si>
+  <si>
+    <t>receive in-app safety prompts before and during rides</t>
+  </si>
+  <si>
+    <t>Safety prompts shown at trip start</t>
+  </si>
+  <si>
+    <t>NSW helmet and road rules included</t>
+  </si>
+  <si>
+    <t>Prompts acknowledged before ride unlock</t>
+  </si>
+  <si>
+    <t>Compliance logged</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Epic #</t>
+  </si>
+  <si>
+    <t>Story #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,13 +522,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -459,9 +569,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,16 +859,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.9296875" customWidth="1"/>
-    <col min="2" max="2" width="3.73046875" customWidth="1"/>
+    <col min="1" max="1" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.46484375" bestFit="1" customWidth="1"/>
@@ -761,682 +878,824 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>1.2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>1.3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>1.3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F13" t="s">
         <v>61</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
         <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>1.4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>1.4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>1.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B21">
-        <v>1.5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G22" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G24" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>1.6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B26">
-        <v>1.6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>2.1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>2.1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G32" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B36">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G37" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B41">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G42" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>3.1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46">
-        <v>3.1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
         <v>100</v>
-      </c>
-      <c r="E46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G47" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>3.2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B50">
-        <v>3.2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F51" t="s">
         <v>105</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G51" t="s">
         <v>106</v>
-      </c>
-      <c r="G50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G51" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>3.3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B54">
-        <v>3.3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G55" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>4</v>
-      </c>
-      <c r="B58">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G59" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B63">
+      <c r="G63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B64">
         <v>4.2</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>31</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>32</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>33</v>
       </c>
-      <c r="G63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B68">
+        <v>4.3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B67">
-        <v>4.3</v>
-      </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>34</v>
-      </c>
-      <c r="G67" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G68" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B72">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B71">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D71" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="F72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s">
         <v>130</v>
-      </c>
-      <c r="F71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G72" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75">
+      <c r="G75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76">
         <v>5</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>36</v>
       </c>
-      <c r="D75" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>37</v>
-      </c>
-      <c r="F75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D76" t="s">
         <v>5</v>
       </c>
       <c r="E76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G78" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B80">
+        <v>5.2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
         <v>39</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F80" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D77" t="s">
+      <c r="G80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B84">
+        <v>5.3</v>
+      </c>
+      <c r="D84" t="s">
         <v>31</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E84" t="s">
         <v>41</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F84" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78">
+      <c r="G84" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G85" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G86" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G87" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88">
         <v>6</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B88">
+        <v>6.1</v>
+      </c>
+      <c r="C88" t="s">
         <v>43</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D88" t="s">
         <v>44</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E88" t="s">
         <v>45</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F88" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D79" t="s">
+      <c r="G88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G90" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G91" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B92">
+        <v>6.2</v>
+      </c>
+      <c r="D92" t="s">
         <v>31</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E92" t="s">
         <v>47</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F92" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D80" t="s">
+      <c r="G92" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G94" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G95" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B96">
+        <v>6.3</v>
+      </c>
+      <c r="D96" t="s">
         <v>8</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E96" t="s">
+        <v>154</v>
+      </c>
+      <c r="F96" t="s">
         <v>49</v>
       </c>
-      <c r="F80" t="s">
-        <v>50</v>
+      <c r="G96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G99" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
